--- a/email_app/Membres_CACS.xlsx
+++ b/email_app/Membres_CACS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliaz\OneDrive\Bureau\CACS\Pôle média\Template_envoie_de_mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliaz\OneDrive\Bureau\CACS\Pôle média\email_sender\email_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF41E892-EC49-40AD-BE9E-5D9545952FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3746D807-1920-4A2B-A1A8-F5DE22B970BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3235C8AB-BA81-4FB1-BEED-6A4A9B7DEDEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>Nom</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>Respo média pôle espace</t>
+  </si>
+  <si>
+    <t>Bouillaud</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>sophie.bouillaud@student-cs.fr</t>
+  </si>
+  <si>
+    <t>Présidente</t>
   </si>
 </sst>
 </file>
@@ -734,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D8B5ED-58A9-4D7D-B79D-0937F524451C}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1155,7 +1167,21 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
+      <c r="A25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="6">
+        <v>637618120</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
@@ -1194,17 +1220,19 @@
     <hyperlink ref="C22" r:id="rId21" display="mailto:arthur.conrozier@student-cs.fr" xr:uid="{B63A9BD6-662C-4B86-8B2B-2689BB468480}"/>
     <hyperlink ref="C23" r:id="rId22" display="mailto:mathieu.rives@student-cs.fr" xr:uid="{50B58A46-49C5-4ED0-8BE0-2DB0A6493393}"/>
     <hyperlink ref="C24" r:id="rId23" xr:uid="{34DC825D-2141-484E-BE9A-3D2DA07C3500}"/>
+    <hyperlink ref="C25" r:id="rId24" display="mailto:sophie.bouillaud@student-cs.fr" xr:uid="{D7531D2E-856B-48C8-BE5E-EA025ED15CD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f0a01f58-fd5e-452d-9247-2fc825372b25" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,26 +1416,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f0a01f58-fd5e-452d-9247-2fc825372b25" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E946AB81-9CB5-4EE7-BE78-27F7E6C5C956}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A52B877-FEE2-4567-A0DF-2CD917DA3491}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f0a01f58-fd5e-452d-9247-2fc825372b25"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1431,9 +1450,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A52B877-FEE2-4567-A0DF-2CD917DA3491}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E946AB81-9CB5-4EE7-BE78-27F7E6C5C956}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="f0a01f58-fd5e-452d-9247-2fc825372b25"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>